--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3734.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3734.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.212203904191411</v>
+        <v>2.184474945068359</v>
       </c>
       <c r="B1">
-        <v>2.247139209529386</v>
+        <v>2.410895109176636</v>
       </c>
       <c r="C1">
-        <v>5.279755675015348</v>
+        <v>1.43298065662384</v>
       </c>
       <c r="D1">
-        <v>3.172868359864383</v>
+        <v>1.506852746009827</v>
       </c>
       <c r="E1">
-        <v>1.186612950949726</v>
+        <v>1.597444176673889</v>
       </c>
     </row>
   </sheetData>
